--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -924,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,7 +1010,7 @@
       <c r="E4" s="2">
         <v>5</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="3">
         <v>1</v>
       </c>
       <c r="G4" s="2">
@@ -1047,7 +1047,7 @@
       <c r="E5" s="2">
         <v>5</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="3">
         <v>2</v>
       </c>
       <c r="G5" s="2">
@@ -1080,7 +1080,7 @@
       <c r="E6" s="2">
         <v>5</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="3">
         <v>2</v>
       </c>
       <c r="G6" s="2">

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -19,7 +19,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0">
+    <comment ref="D3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -170,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="0" shapeId="0">
+    <comment ref="O3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -195,7 +195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0" shapeId="0">
+    <comment ref="P3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0" shapeId="0">
+    <comment ref="Q3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -247,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="0" shapeId="0">
+    <comment ref="R3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -278,7 +278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>ЕтБ</t>
   </si>
@@ -365,6 +365,9 @@
   </si>
   <si>
     <t>2,3</t>
+  </si>
+  <si>
+    <t>Misha loh</t>
   </si>
 </sst>
 </file>
@@ -612,15 +615,15 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="6" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="20% – Акцентування6" xfId="8" builtinId="50"/>
-    <cellStyle name="60% – Акцентування5" xfId="5" builtinId="48"/>
-    <cellStyle name="Акцентування4" xfId="7" builtinId="41"/>
-    <cellStyle name="Гарний" xfId="4" builtinId="26"/>
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
-    <cellStyle name="Контрольна клітинка" xfId="2" builtinId="23"/>
-    <cellStyle name="Обчислення" xfId="1" builtinId="22"/>
-    <cellStyle name="Поганий" xfId="6" builtinId="27"/>
-    <cellStyle name="Примітка" xfId="3" builtinId="10"/>
+    <cellStyle name="20% - Акцент6" xfId="8" builtinId="50"/>
+    <cellStyle name="60% - Акцент5" xfId="5" builtinId="48"/>
+    <cellStyle name="Акцент4" xfId="7" builtinId="41"/>
+    <cellStyle name="Вычисление" xfId="1" builtinId="22"/>
+    <cellStyle name="Контрольная ячейка" xfId="2" builtinId="23"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="6" builtinId="27"/>
+    <cellStyle name="Примечание" xfId="3" builtinId="10"/>
+    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -638,7 +641,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -676,9 +679,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -713,7 +716,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -748,7 +751,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -922,27 +925,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R16"/>
+  <dimension ref="B1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
       <c r="M1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -965,7 +968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
@@ -1000,7 +1003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1037,7 +1040,7 @@
       </c>
       <c r="R4" s="12"/>
     </row>
-    <row r="5" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>2</v>
       </c>
@@ -1070,7 +1073,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>3</v>
       </c>
@@ -1099,7 +1102,7 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
     </row>
-    <row r="7" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1134,7 +1137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>5</v>
       </c>
@@ -1164,7 +1167,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>6</v>
       </c>
@@ -1182,7 +1185,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>7</v>
       </c>
@@ -1197,7 +1200,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>8</v>
       </c>
@@ -1205,7 +1208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>9</v>
       </c>
@@ -1213,7 +1216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>10</v>
       </c>
@@ -1221,17 +1224,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C16">
         <f>SUM(C4:C15)</f>
         <v>0</v>
@@ -1251,6 +1254,11 @@
       <c r="G16">
         <f t="shared" si="0"/>
         <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -924,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,7 +1109,7 @@
       <c r="E7" s="2">
         <v>5</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="3">
         <v>2</v>
       </c>
       <c r="G7" s="2">
@@ -1144,7 +1144,7 @@
       <c r="E8" s="2">
         <v>5</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="3">
         <v>2</v>
       </c>
       <c r="I8" s="5"/>
@@ -1174,8 +1174,8 @@
       <c r="E9" s="2">
         <v>5</v>
       </c>
-      <c r="F9" s="13">
-        <v>2</v>
+      <c r="F9" s="3">
+        <v>7</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" t="s">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
